--- a/January 2023 Analysis/New Analysis/sampleset/Results/Result 2 Exp 2.xlsx
+++ b/January 2023 Analysis/New Analysis/sampleset/Results/Result 2 Exp 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/January 2023 Analysis/New Analysis/sampleset/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826EFDB-60F8-5443-8053-656331975806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFAAA4-381D-8D4C-BFB4-592A4C20D7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{9E606C90-6937-7643-AC22-ADE071A6A0E2}"/>
+    <workbookView xWindow="2720" yWindow="3460" windowWidth="28040" windowHeight="16380" xr2:uid="{9E606C90-6937-7643-AC22-ADE071A6A0E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -329,9 +329,6 @@
     <t>result97 = model.translate(['moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5+c3_at6id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_typeonesigc3_at6extendsc3_at6_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at3noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_type,onesigclass5_nameextendsClassattrSet=c5_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1_0+c6_at2+c6_at3+c6_at4id=c6_at2noparentisAbstract=No}onesigc6_at1_0extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigclass8_nameextendsClassattrSet=c8_at1+c8_at2+c2_at2+c6_at3id=c8_at1noparentisAbstract=No}onesigc8_at1extendsc8_at1_typeonesigc8_at1extendsc8_at1_type,onesigassoc1extendsAssociationsrc=class8_namedst=class2_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class2_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class8_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class8_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc5extendsAssociationsrc=class8_namedst=class6_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc6extendsAssociationsrc=class6_namedst=class1_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc7extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc8extendsAssociationsrc=class1_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc9extendsAssociationsrc=class1_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc10extendsAssociationsrc=class2_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,},MappingStrategyforclass1_name:map_str2MappingStrategyforclass2_name:map_str1MappingStrategyforclass5_name:map_str1MappingStrategyforclass7_name:map_str1AssociationStrategyforassoc4:assoc_str1AssociationStrategyforassoc7:assoc_str1AssociationStrategyforassoc8:assoc_str1AssociationStrategyforassoc9:assoc_str1AssociationStrategyforassoc1:assoc_str2AssociationStrategyforassoc10:assoc_str2AssociationStrategyforassoc3:assoc_str2AssociationStrategyforassoc5:assoc_str2AssociationStrategyforassoc6:assoc_str2,USEOM_name_0CREATETABLE`class3_name`(`c3_at6`c3_at6_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at3`c3_at3_type`c3_at2`c3_at2_typec3_at1`c3_at1_typeNOTNULLc1_at1`c1_at1_typeKEY`FK_class3_name_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class1_name`(`c1_at1`c1_at2_type(64)`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`class2_name`(c2_at3`c2_at3_type(64),`c7_at1`c7_at1_type(64)`c5_at1`c5_at1_type,`c2_at2`c2_at2_type(64)c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`assoc10`(c3_at1`c3_at1_typeNOTNULLc2_at1`c2_at1_typeNOTNULLKEY`FK_assoc10_c3_at1_idx`(`c3_at1`)KEY`FK_assoc10_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`,`c2_at1`),);CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64)`c6_at3`c6_at3_type(64)``c8_at1`c8_at1_typeNOTNULLPRIMARYKEY(`c8_at1`),);CREATETABLE`assoc5`(``c8_at1`c8_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc5_c8_at1_idx`(`c8_at1`),KEY`FK_assoc5_c6_at2_idx`(`c6_at2`)PRIMARYKEY(`c8_at1`,`c6_at2`),);CREATETABLE`assoc3`(``c8_at1`c8_at1_typeNOTNULLc3_at1`c3_at1_typeNOTNULLKEY`FK_assoc3_c8_at1_idx`(`c8_at1`)KEY`FK_assoc3_c3_at1_idx`(`c3_at1`)PRIMARYKEY(`c8_at1`,`c3_at1`));CREATETABLE`class4_name`(`c4_at4`c4_at4_type(64)`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type(64)`c8_at1`c8_at1_type`c6_at2`c6_at2_type`c4_at3`c4_at3_typec1_at1`c1_at1_typeKEY`FK_class4_name_c8_at1_idx`(`c8_at1`)KEY`FK_class4_name_c6_at2_idx`(`c6_at2`)KEY`FK_class4_name_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c4_at3`),);CREATETABLE`assoc1`(``c8_at1`c8_at1_typeNOTNULLc2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c8_at1_idx`(`c8_at1`)KEY`FK_assoc1_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c8_at1`,`c2_at1`));CREATETABLE`assoc6`(`c2_at1`c2_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULL`c3_at1`c3_at1_typeNOTNULLKEY`FK_assoc6_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c6_at2`,`c1_at1`),);CREATETABLE`class6_name`(`c6_at4`c6_at4_type(64)`c6_at1_0`c6_at1_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c6_at2`),);CREATETABLE`assoc2`(`c4_at3`c4_at3_typec2_at1`c2_at1_typeNOTNULLKEY`FK_assoc2_c4_at3_idx`(`c4_at3`)KEY`FK_assoc2_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c4_at3`,`c2_at1`),);ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc10`ADDCONSTRAINT`FK_assoc10_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc10_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc3_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_class4_name_c6_at2`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_class4_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc6`ADDCONSTRAINT`FK_assoc6_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc6_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE'])</t>
   </si>
   <si>
-    <t>result98 = model.translate(['moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5+c3_at6id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_typeonesigc3_at6extendsc3_at6_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at3noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_type,onesigclass5_nameextendsClassattrSet=c5_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1_0+c6_at2+c6_at3+c6_at4id=c6_at2noparentisAbstract=No}onesigc6_at1_0extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigclass8_nameextendsClassattrSet=c8_at1+c8_at2+c2_at2+c6_at3id=c8_at1noparentisAbstract=No}onesigc8_at1extendsc8_at1_typeonesigc8_at1extendsc8_at1_type,onesigassoc1extendsAssociationsrc=class8_namedst=class2_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class2_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class8_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class8_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc5extendsAssociationsrc=class8_namedst=class6_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc6extendsAssociationsrc=class6_namedst=class1_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc7extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc8extendsAssociationsrc=class1_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc9extendsAssociationsrc=class1_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc10extendsAssociationsrc=class2_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,},MappingStrategyforclass1_name:map_str2MappingStrategyforclass2_name:map_str1MappingStrategyforclass5_name:map_str1MappingStrategyforclass7_name:map_str1AssociationStrategyforassoc3:assoc_str1AssociationStrategyforassoc4:assoc_str1AssociationStrategyforassoc1:assoc_str2AssociationStrategyforassoc10:assoc_str2AssociationStrategyforassoc5:assoc_str2AssociationStrategyforassoc6:assoc_str2AssociationStrategyforassoc7:assoc_str2AssociationStrategyforassoc8:assoc_str2AssociationStrategyforassoc9:assoc_str2,USEOM_name_0CREATETABLE`class3_name`(`c8_at1`c8_at1_type`c3_at6`c3_at6_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at3`c3_at3_type`c3_at2`c3_at2_typec3_at1`c3_at1_typeNOTNULLKEY`FK_class3_name_c8_at1_idx`(`c8_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class1_name`(`c1_at1`c1_at2_type(64)`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`class2_name`(c2_at3`c2_at3_type(64),`c7_at1`c7_at1_type(64)`c5_at1`c5_at1_type,`c2_at2`c2_at2_type(64)c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`assoc10`(c3_at1`c3_at1_typeNOTNULLc2_at1`c2_at1_typeNOTNULLKEY`FK_assoc10_c3_at1_idx`(`c3_at1`)KEY`FK_assoc10_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`,`c2_at1`),);CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64)`c6_at3`c6_at3_type(64)``c8_at1`c8_at1_typeNOTNULLPRIMARYKEY(`c8_at1`),);CREATETABLE`assoc7`(`c2_at1`c2_at1_typeNOTNULL`c4_at3`c4_at3_typeKEY`FK_assoc7_c6_at2_idx`(`c6_at2`),KEY`FK_assoc7_c4_at3_idx`(`c4_at3`),PRIMARYKEY(`c6_at2`,`c4_at3`));CREATETABLE`assoc5`(``c8_at1`c8_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc5_c8_at1_idx`(`c8_at1`),KEY`FK_assoc5_c6_at2_idx`(`c6_at2`)PRIMARYKEY(`c8_at1`,`c6_at2`),);CREATETABLE`assoc8`(c3_at1`c3_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc8_c3_at1_idx`(`c3_at1`)KEY`FK_assoc8_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class4_name`(`c4_at4`c4_at4_type(64)`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type(64)`c8_at1`c8_at1_type`c4_at3`c4_at3_typeKEY`FK_class4_name_c8_at1_idx`(`c8_at1`)PRIMARYKEY(`c4_at3`),);CREATETABLE`assoc1`(``c8_at1`c8_at1_typeNOTNULLc2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c8_at1_idx`(`c8_at1`)KEY`FK_assoc1_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c8_at1`,`c2_at1`));CREATETABLE`assoc6`(`c2_at1`c2_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULL`c3_at1`c3_at1_typeNOTNULLKEY`FK_assoc6_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c6_at2`,`c1_at1`),);CREATETABLE`class6_name`(`c6_at4`c6_at4_type(64)`c6_at1_0`c6_at1_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c6_at2`),);CREATETABLE`assoc2`(`c4_at3`c4_at3_typec2_at1`c2_at1_typeNOTNULLKEY`FK_assoc2_c4_at3_idx`(`c4_at3`)KEY`FK_assoc2_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c4_at3`,`c2_at1`),);CREATETABLE`assoc9`(`c4_at3`c4_at3_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc9_c4_at3_idx`(`c4_at3`)KEY`FK_assoc9_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c4_at3`,`c1_at1`));ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc10`ADDCONSTRAINT`FK_assoc10_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc10_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc7`ADDCONSTRAINT`FK_assoc7_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc7_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc8`ADDCONSTRAINT`FK_assoc8_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc8_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_Book_LMSId`FOREIGNKEY(`LMSId`)REFERENCES`LibraryManagementSystem`(`LMSId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc6`ADDCONSTRAINT`FK_assoc6_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc6_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc9`ADDCONSTRAINT`FK_assoc9_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc9_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE'])</t>
-  </si>
-  <si>
     <t>result99 = model.translate(['moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5+c3_at6id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_typeonesigc3_at6extendsc3_at6_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at3noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_type,onesigclass5_nameextendsClassattrSet=c5_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1_0+c6_at2+c6_at3+c6_at4id=c6_at2noparentisAbstract=No}onesigc6_at1_0extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigclass8_nameextendsClassattrSet=c8_at1+c8_at2+c2_at2+c6_at3id=c8_at1noparentisAbstract=No}onesigc8_at1extendsc8_at1_typeonesigc8_at1extendsc8_at1_type,onesigassoc1extendsAssociationsrc=class8_namedst=class2_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class2_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class8_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class8_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc5extendsAssociationsrc=class8_namedst=class6_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc6extendsAssociationsrc=class6_namedst=class1_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc7extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc8extendsAssociationsrc=class1_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc9extendsAssociationsrc=class1_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc10extendsAssociationsrc=class2_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,},MappingStrategyforclass1_name:map_str2MappingStrategyforclass2_name:map_str1MappingStrategyforclass5_name:map_str1MappingStrategyforclass7_name:map_str1AssociationStrategyforassoc3:assoc_str1AssociationStrategyforassoc4:assoc_str1AssociationStrategyforassoc1:assoc_str2AssociationStrategyforassoc10:assoc_str2AssociationStrategyforassoc5:assoc_str2AssociationStrategyforassoc6:assoc_str2AssociationStrategyforassoc7:assoc_str2AssociationStrategyforassoc8:assoc_str2AssociationStrategyforassoc9:assoc_str2,USEOM_name_0CREATETABLE`class3_name`(`c8_at1`c8_at1_type`c3_at6`c3_at6_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at3`c3_at3_type`c3_at2`c3_at2_typec3_at1`c3_at1_typeNOTNULLc1_at1`c1_at1_typeKEY`FK_class3_name_c8_at1_idx`(`c8_at1`)KEY`FK_class3_name_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class1_name`(`c1_at1`c1_at2_type(64)`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`class2_name`(`c8_at1`c8_at1_typec2_at1`c2_at1_typeNOTNULLKEY`FK_class2_name_c8_at1_idx`(`c8_at1`)PRIMARYKEY(`c1_at1`),);CREATETABLE`class7_name`(`c7_at1`c7_at1_type(64)`c2_at2`c2_at2_type(64)c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`assoc10`(c3_at1`c3_at1_typeNOTNULLc2_at1`c2_at1_typeNOTNULLKEY`FK_assoc10_c3_at1_idx`(`c3_at1`)KEY`FK_assoc10_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`,`c2_at1`),);CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64)`c6_at3`c6_at3_type(64)`c2_at2`c2_at2_type(64)``c8_at1`c8_at1_typeNOTNULLPRIMARYKEY(`c8_at1`),);CREATETABLE`class5_name`(`c5_at1`c5_at1_type,c2_at1`c2_at1_typeNOTNULLKEY`FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c1_at1`),);CREATETABLE`assoc5`(``c8_at1`c8_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc5_c8_at1_idx`(`c8_at1`),KEY`FK_assoc5_c6_at2_idx`(`c6_at2`)PRIMARYKEY(`c8_at1`,`c6_at2`),);CREATETABLE`class4_name`(`c4_at4`c4_at4_type(64)`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type(64)`c8_at1`c8_at1_type`c6_at2`c6_at2_type`c4_at3`c4_at3_typec1_at1`c1_at1_typeKEY`FK_class4_name_c8_at1_idx`(`c8_at1`)KEY`FK_class4_name_c6_at2_idx`(`c6_at2`)KEY`FK_class4_name_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c4_at3`),);CREATETABLE`assoc6`(`c2_at1`c2_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULL`c3_at1`c3_at1_typeNOTNULLKEY`FK_assoc6_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c6_at2`,`c1_at1`),);CREATETABLE`class6_name`(`c6_at4`c6_at4_type(64)`c6_at3`c6_at3_type(64)`c6_at1_0`c6_at1_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c6_at2`),);CREATETABLE`assoc2`(`c4_at3`c4_at3_typec2_at1`c2_at1_typeNOTNULLKEY`FK_assoc2_c4_at3_idx`(`c4_at3`)KEY`FK_assoc2_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c4_at3`,`c2_at1`),);ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_class3_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class2_name`ADDCONSTRAINT`FK_class2_name_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc10`ADDCONSTRAINT`FK_assoc10_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc10_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class5_nameADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_class4_name_c6_at2`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_class4_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc6`ADDCONSTRAINT`FK_assoc6_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc6_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>result101 = model.translate(['moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5+c3_at6id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_typeonesigc3_at6extendsc3_at6_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at3noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_type,onesigclass5_nameextendsClassattrSet=c5_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1_0+c6_at2+c6_at3+c6_at4id=c6_at2noparentisAbstract=No}onesigc6_at1_0extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigclass8_nameextendsClassattrSet=c8_at1+c8_at2+c2_at2+c6_at3id=c8_at1noparentisAbstract=No}onesigc8_at1extendsc8_at1_typeonesigc8_at1extendsc8_at1_type,onesigassoc1extendsAssociationsrc=class8_namedst=class2_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class2_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class8_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class8_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc5extendsAssociationsrc=class8_namedst=class6_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc6extendsAssociationsrc=class6_namedst=class1_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc7extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc8extendsAssociationsrc=class1_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc9extendsAssociationsrc=class1_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc10extendsAssociationsrc=class2_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,},MappingStrategyforclass1_name:map_str2MappingStrategyforclass6_name:map_str2MappingStrategyforclass2_name:map_str1MappingStrategyforclass5_name:map_str1MappingStrategyforclass7_name:map_str1AssociationStrategyforassoc3:assoc_str1AssociationStrategyforassoc7:assoc_str1AssociationStrategyforassoc8:assoc_str1AssociationStrategyforassoc9:assoc_str1AssociationStrategyforassoc1:assoc_str2AssociationStrategyforassoc10:assoc_str2AssociationStrategyforassoc4:assoc_str2AssociationStrategyforassoc5:assoc_str2AssociationStrategyforassoc6:assoc_str2,USEOM_name_0CREATETABLE`class3_name`(`c8_at1`c8_at1_type`c3_at6`c3_at6_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at3`c3_at3_type`c3_at2`c3_at2_typec3_at1`c3_at1_typeNOTNULLc1_at1`c1_at1_typeKEY`FK_class3_name_c8_at1_idx`(`c8_at1`)KEY`FK_class3_name_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class1_name`(`c1_at1`c1_at2_type(64)`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`class2_name`(c2_at3`c2_at3_type(64),`c7_at1`c7_at1_type(64)`c5_at1`c5_at1_type,`c2_at2`c2_at2_type(64)c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`assoc10`(c3_at1`c3_at1_typeNOTNULLc2_at1`c2_at1_typeNOTNULLKEY`FK_assoc10_c3_at1_idx`(`c3_at1`)KEY`FK_assoc10_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`,`c2_at1`),);CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64)``c8_at1`c8_at1_typeNOTNULLPRIMARYKEY(`c8_at1`),);CREATETABLE`assoc5`(``c8_at1`c8_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc5_c8_at1_idx`(`c8_at1`),KEY`FK_assoc5_c6_at2_idx`(`c6_at2`)PRIMARYKEY(`c8_at1`,`c6_at2`),);CREATETABLE`assoc1`(``c8_at1`c8_at1_typeNOTNULLc2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c8_at1_idx`(`c8_at1`)KEY`FK_assoc1_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c8_at1`,`c2_at1`));CREATETABLE`assoc4`(``c8_at1`c8_at1_typeNOTNULL`c4_at3`c4_at3_typeKEY`FK_assoc4_c8_at1_idx`(`c8_at1`)KEY`FK_assoc4_c4_at3_idx`(`c4_at3`)PRIMARYKEY(`c8_at1`,`c4_at3`));CREATETABLE`class4_name`(`c4_at4`c4_at4_type(64)`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type(64)`c6_at2`c6_at2_type`c4_at3`c4_at3_typec1_at1`c1_at1_typeKEY`FK_class4_name_c6_at2_idx`(`c6_at2`)KEY`FK_class4_name_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c4_at3`),);CREATETABLE`assoc6`(`c2_at1`c2_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULL`c3_at1`c3_at1_typeNOTNULLKEY`FK_assoc6_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c6_at2`,`c1_at1`),);CREATETABLE`class6_name`(`c6_at4`c6_at4_type(64)`c6_at3`c6_at3_type(64)`c6_at1_0`c6_at1_type`c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c6_at2`),);CREATETABLE`assoc2`(`c4_at3`c4_at3_typec2_at1`c2_at1_typeNOTNULLKEY`FK_assoc2_c4_at3_idx`(`c4_at3`)KEY`FK_assoc2_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c4_at3`,`c2_at1`),);ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_class3_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc10`ADDCONSTRAINT`FK_assoc10_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc10_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc4_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_class4_name_c6_at2`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_class4_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc6`ADDCONSTRAINT`FK_assoc6_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc6_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>result98 = model.translate(['moduleOM_name:0,openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_type,onesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_type,onesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4+c3_at5+c3_at6id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigc3_at5extendsc3_at5_typeonesigc3_at6extendsc3_at6_type,onesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at3noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_type,onesigclass5_nameextendsClassattrSet=c5_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc5_at1extendsc5_at1_type,onesigclass6_nameextendsClassattrSet=c6_at1_0+c6_at2+c6_at3+c6_at4id=c6_at2noparentisAbstract=No}onesigc6_at1_0extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_type,onesigclass7_nameextendsClassattrSet=c7_at1oneparentparentinclass2_nameid=c2_at1isAbstract=No}onesigc7_at1extendsc7_at1_type,onesigclass8_nameextendsClassattrSet=c8_at1+c8_at2+c2_at2+c6_at3id=c8_at1noparentisAbstract=No}onesigc8_at1extendsc8_at1_typeonesigc8_at1extendsc8_at1_type,onesigassoc1extendsAssociationsrc=class8_namedst=class2_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc2extendsAssociationsrc=class2_namedst=class4_name,src_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigassoc3extendsAssociationsrc=class8_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc4extendsAssociationsrc=class8_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc5extendsAssociationsrc=class8_namedst=class6_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc6extendsAssociationsrc=class6_namedst=class1_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,}onesigassoc7extendsAssociationsrc=class6_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc8extendsAssociationsrc=class1_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc9extendsAssociationsrc=class1_namedst=class4_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc10extendsAssociationsrc=class2_namedst=class3_name,src_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2,},MappingStrategyforclass1_name:map_str2MappingStrategyforclass2_name:map_str1MappingStrategyforclass5_name:map_str1MappingStrategyforclass7_name:map_str1AssociationStrategyforassoc3:assoc_str1AssociationStrategyforassoc4:assoc_str1AssociationStrategyforassoc1:assoc_str2AssociationStrategyforassoc10:assoc_str2AssociationStrategyforassoc5:assoc_str2AssociationStrategyforassoc6:assoc_str2AssociationStrategyforassoc7:assoc_str2AssociationStrategyforassoc8:assoc_str2AssociationStrategyforassoc9:assoc_str2,USEOM_name_0CREATETABLE`class3_name`(`c8_at1`c8_at1_type`c3_at6`c3_at6_type`c3_at5`c3_at5_type`c3_at4`c3_at4_type`c3_at3`c3_at3_type`c3_at2`c3_at2_typec3_at1`c3_at1_typeNOTNULLKEY`FK_class3_name_c8_at1_idx`(`c8_at1`)PRIMARYKEY(`c3_at1`),);CREATETABLE`class1_name`(`c1_at1`c1_at2_type(64)`c1_at1`c1_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`class2_name`(c2_at3`c2_at3_type(64),`c7_at1`c7_at1_type(64)`c5_at1`c5_at1_type,`c2_at2`c2_at2_type(64)c2_at1`c2_at1_typeNOTNULLPRIMARYKEY(`c1_at1`),);CREATETABLE`assoc10`(c3_at1`c3_at1_typeNOTNULLc2_at1`c2_at1_typeNOTNULLKEY`FK_assoc10_c3_at1_idx`(`c3_at1`)KEY`FK_assoc10_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c3_at1`,`c2_at1`),);CREATETABLE`class8_name`(`c8_at2`c8_at2_type(64)`c6_at3`c6_at3_type(64)``c8_at1`c8_at1_typeNOTNULLPRIMARYKEY(`c8_at1`),);CREATETABLE`assoc7`(`c2_at1`c2_at1_typeNOTNULL`c4_at3`c4_at3_typeKEY`FK_assoc7_c6_at2_idx`(`c6_at2`),KEY`FK_assoc7_c4_at3_idx`(`c4_at3`),PRIMARYKEY(`c6_at2`,`c4_at3`));CREATETABLE`assoc5`(``c8_at1`c8_at1_typeNOTNULL`c2_at1`c2_at1_typeNOTNULLKEY`FK_assoc5_c8_at1_idx`(`c8_at1`),KEY`FK_assoc5_c6_at2_idx`(`c6_at2`)PRIMARYKEY(`c8_at1`,`c6_at2`),);CREATETABLE`assoc8`(c3_at1`c3_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc8_c3_at1_idx`(`c3_at1`)KEY`FK_assoc8_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class4_name`(`c4_at4`c4_at4_type(64)`c4_at2`c4_at2_type(64)`c4_at1`c4_at1_type(64)`c8_at1`c8_at1_type`c4_at3`c4_at3_typeKEY`FK_class4_name_c8_at1_idx`(`c8_at1`)PRIMARYKEY(`c4_at3`),);CREATETABLE`assoc1`(``c8_at1`c8_at1_typeNOTNULLc2_at1`c2_at1_typeNOTNULLKEY`FK_assoc1_c8_at1_idx`(`c8_at1`)KEY`FK_assoc1_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c8_at1`,`c2_at1`));CREATETABLE`assoc6`(`c2_at1`c2_at1_typeNOTNULL`c1_at1`c1_at1_typeNOTNULL`c3_at1`c3_at1_typeNOTNULLKEY`FK_assoc6_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c6_at2`,`c1_at1`),);CREATETABLE`class6_name`(`c6_at4`c6_at4_type(64)`c6_at1_0`c6_at1_type`c2_at1`c2_at1_typeNOTNULLPRIMARY,KEY(`c6_at2`),);CREATETABLE`assoc2`(`c4_at3`c4_at3_typec2_at1`c2_at1_typeNOTNULLKEY`FK_assoc2_c4_at3_idx`(`c4_at3`)KEY`FK_assoc2_c2_at1_idx`(`c2_at1`)PRIMARYKEY(`c4_at3`,`c2_at1`),);CREATETABLE`assoc9`(`c4_at3`c4_at3_type`c1_at1`c1_at1_typeNOTNULLKEY`FK_assoc9_c4_at3_idx`(`c4_at3`)KEY`FK_assoc9_c1_at1_idx`(`c1_at1`)PRIMARYKEY(`c4_at3`,`c1_at1`));ALTERTABLE`class3_name`ADDCONSTRAINT`FK_class3_name_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc10`ADDCONSTRAINT`FK_assoc10_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc10_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc7`ADDCONSTRAINT`FK_assoc7_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc7_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc5_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc8`ADDCONSTRAINT`FK_assoc8_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc8_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`class4_name`ADDCONSTRAINT`FK_Book_LMSId`FOREIGNKEY(`LMSId`)REFERENCES`LibraryManagementSystem`(`LMSId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c8_at1`FOREIGNKEY(`c8_at1`)REFERENCES`class8_name`(`c8_at1`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc1_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADEALTERTABLE`assoc6`ADDCONSTRAINT`FK_assoc6_c6_at2`FOREIGNKEY(`c6_at2`)REFERENCES`class6_name`(`c6_at2`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc6_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc9`ADDCONSTRAINT`FK_assoc9_c4_at3`FOREIGNKEY(`c4_at3`)REFERENCES`class4_name`(`c4_at3`)ONDELETECASCADEONUPDATECASCADEADDCONSTRAINT`FK_assoc9_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE'])</t>
   </si>
 </sst>
 </file>
@@ -393,12 +393,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE80F2C-09A0-644A-8168-23135C5417CA}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A89" sqref="A1:A101"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,607 +725,607 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="B101" s="2"/>
     </row>
